--- a/qsdsan/data/_masm2d.xlsx
+++ b/qsdsan/data/_masm2d.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\QSDsan\qsdsan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D92582-E0DC-4ED9-AB58-84B1E782D569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8669CCC-E730-49A3-8887-38A99F36D027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{028F6E0F-965C-4F8B-87F9-99B413BFCEEA}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{028F6E0F-965C-4F8B-87F9-99B413BFCEEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="ADM1p" sheetId="3" r:id="rId2"/>
-    <sheet name="ADM1" sheetId="4" r:id="rId3"/>
+    <sheet name="mASM2d" sheetId="2" r:id="rId1"/>
+    <sheet name="Precipitation-Dissolution" sheetId="5" r:id="rId2"/>
+    <sheet name="ADM1p" sheetId="3" r:id="rId3"/>
+    <sheet name="ADM1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="256">
   <si>
     <t>S_I</t>
   </si>
@@ -637,17 +637,671 @@
   </si>
   <si>
     <r>
+      <t>q_fe*K_O2_H/(K_O2_H+S_O2)*K_NO3_H/(K_NO3_H+S_NO3)*S_F/(K_fe+S_F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_H+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*X_H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_PHA*S_A/(K_A_PAO+S_A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_PP/X_PAO)/(K_PP+X_PP/X_PAO)*X_PAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_PP*eta_NO3_PAO*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3)*S_PO4/(K_PS+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_PAO*eta_NO3_PAO*S_NO3/(K_NO3_PAO+S_NO3)*K_O2_PAO/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_AUT*S_O2/(K_O2_AUT+S_O2)*S_NH4/(K_NH4_AUT+S_NH4)*S_PO4/(K_P_AUT+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_AUT+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*X_AUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * KI_IS_AUT/(S_IS+KI_IS_AUT)</t>
+    </r>
+  </si>
+  <si>
+    <t>decay=0</t>
+  </si>
+  <si>
+    <r>
+      <t>K_h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2_H+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_F/(K_F+S_F)*S_F/(S_F+S_A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*X_H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2_H+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*X_H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * KI_IS_H/(S_IS+KI_IS_H)</t>
+    </r>
+  </si>
+  <si>
+    <t>q_PHA*S_A/(K_A_PAO+S_A)*(X_PP/X_PAO)/(K_PP+X_PP/X_PAO)*X_PAO</t>
+  </si>
+  <si>
+    <r>
+      <t>q_PP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2_PAO+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_PO4/(K_PS+S_PO4)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2_PAO+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
+    </r>
+  </si>
+  <si>
+    <t>b_PAO*X_PAO</t>
+  </si>
+  <si>
+    <t>b_PP*X_PP</t>
+  </si>
+  <si>
+    <t>b_PHA*X_PHA</t>
+  </si>
+  <si>
+    <r>
+      <t>mu_AUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_O2/(K_O2_AUT+S_O2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NH4/(K_NH4_AUT+S_NH4)*S_PO4/(K_P_AUT+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*X_AUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * KI_IS_AUT/(S_IS+KI_IS_AUT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_PP*eta_NO3_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_O2_PAO/(K_O2_PAO+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NO3/(K_NO3_PAO+S_NO3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_PO4/(K_PS+S_PO4)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mu_PAO*eta_NO3_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NO3/(K_NO3_PAO+S_NO3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_O2_PAO/(K_O2_PAO+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K_h*eta_fe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_O2/(K_O2+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_NO3/(K_NO3+S_NO3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q_fe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_O2_H/(K_O2_H+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_NO3_H/(K_NO3_H+S_NO3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_F/(K_fe+S_F)*X_H</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>K_h*</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hL_NO3</t>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eta_NO3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*K_O2/(K_O2+S_O2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_NO3/(K_NO3+S_NO3)</t>
     </r>
     <r>
       <rPr>
@@ -657,317 +1311,224 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*K_O2/(K_O2+S_O2)*S_NO3/(K_NO3+S_NO3)*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hH_NO3</t>
-    </r>
-    <r>
-      <rPr>
+      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+    </r>
+  </si>
+  <si>
+    <t>mu_H*eta_NO3_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_F/(K_F+S_F)*S_F/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*X_H  * KI_IS_H/(S_IS+KI_IS_H)</t>
+  </si>
+  <si>
+    <t>mu_H*eta_NO3_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*X_H * KI_IS_H/(S_IS+KI_IS_H)</t>
+  </si>
+  <si>
+    <r>
+      <t>b_H*X_H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(S_O2/(KH_O2+S_O2)+hH_NO3_end*KH_O2/(KH_O2+S_O2)*S_NO3/(KH_NO3+S_NO3))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b_PAO*X_PAO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(S_O2/(K_O2_PAO+S_O2)+hP_NO3_end*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b_PP*X_PP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(S_O2/(K_O2_PAO+S_O2)+hPP_NO3_end*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b_PHA*X_PHA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(S_O2/(K_O2_PAO+S_O2)+hPHA_NO3_end*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b_AUT*X_AUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*(S_O2/(K_O2_AUT+S_O2)+hA_NO3_end*K_O2_AUT/(K_O2_AUT+S_O2)*S_NO3/(K_NO3_AUT+S_NO3))</t>
+    </r>
+  </si>
+  <si>
+    <t>S_Ca</t>
+  </si>
+  <si>
+    <t>S_Al</t>
+  </si>
+  <si>
+    <t>S_Fe</t>
+  </si>
+  <si>
+    <t>state variable</t>
+  </si>
+  <si>
+    <t>chemical</t>
+  </si>
+  <si>
+    <r>
+      <t>Mg</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_F/(K_F+S_F)*S_F/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*X_H  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_fe*K_O2_H/(K_O2_H+S_O2)*K_NO3_H/(K_NO3_H+S_NO3)*S_F/(K_fe+S_F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_H+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>2+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ca</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_PHA*S_A/(K_A_PAO+S_A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(X_PP/X_PAO)/(K_PP+X_PP/X_PAO)*X_PAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_PP*eta_NO3_PAO*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3)*S_PO4/(K_PS+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hH_NO3</t>
-    </r>
-    <r>
-      <rPr>
+      <t>2+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Al</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*X_H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>3+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fe</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_PAO*eta_NO3_PAO*S_NO3/(K_NO3_PAO+S_NO3)*K_O2_PAO/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>3+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HCO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_AUT*S_O2/(K_O2_AUT+S_O2)*S_NH4/(K_NH4_AUT+S_NH4)*S_PO4/(K_P_AUT+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_AUT+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*X_AUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * KI_IS_AUT/(S_IS+KI_IS_AUT)</t>
-    </r>
-  </si>
-  <si>
-    <t>decay=0</t>
-  </si>
-  <si>
-    <r>
-      <t>b_H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(S_O2/(KH_O2+S_O2)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hH_NO3_end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*KH_O2/(KH_O2+S_O2)*S_NO3/(KH_NO3+S_NO3))</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -977,364 +1538,96 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b_PAO*X_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(S_O2/(K_O2_PAO+S_O2)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hP_NO3_end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b_PP*X_PP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(S_O2/(K_O2_PAO+S_O2)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hPP_NO3_end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b_PHA*X_PHA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_ALK/(K_ALK_PAO+S_ALK)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(S_O2/(K_O2_PAO+S_O2)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hPHA_NO3_end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b_AUT*X_AUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(S_O2/(K_O2_AUT+S_O2)+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hA_NO3_end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_AUT/(K_O2_AUT+S_O2)*S_NO3/(K_NO3_AUT+S_NO3))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K_h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>, CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2_H+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*S_F/(K_F+S_F)*S_F/(S_F+S_A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>2-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">*X_H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2_H+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <t>measured as</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">*X_H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <t>q_PHA*S_A/(K_A_PAO+S_A)*(X_PP/X_PAO)/(K_PP+X_PP/X_PAO)*X_PAO</t>
-  </si>
-  <si>
-    <r>
-      <t>q_PP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2_PAO+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_PO4/(K_PS+S_PO4)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2_PAO+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1344,116 +1637,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
-    </r>
-  </si>
-  <si>
-    <t>b_PAO*X_PAO</t>
-  </si>
-  <si>
-    <t>b_PP*X_PP</t>
-  </si>
-  <si>
-    <t>b_PHA*X_PHA</t>
-  </si>
-  <si>
-    <r>
-      <t>mu_AUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_O2/(K_O2_AUT+S_O2</t>
-    </r>
-    <r>
-      <rPr>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_AUT+S_NH4)*S_PO4/(K_P_AUT+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*X_AUT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * KI_IS_AUT/(S_IS+KI_IS_AUT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K_h*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hL_NO3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2/(K_O2+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NO3/(K_NO3+S_NO3)</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1463,72 +1669,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hH_NO3</t>
-    </r>
-    <r>
-      <rPr>
+      <t>, HPO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_H/(K_O2_H+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NO3/(K_NO3_H+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*S_F/(K_F+S_F)*S_F/(S_F+S_A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
+      <t>2-</t>
     </r>
     <r>
       <rPr>
@@ -1538,279 +1701,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">*X_H  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_H*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hH_NO3</t>
-    </r>
-    <r>
-      <rPr>
+      <t>, PO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_H/(K_O2_H+S_O2</t>
-    </r>
-    <r>
-      <rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NO3/(K_NO3_H+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*X_H </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* KI_IS_H/(S_IS+KI_IS_H)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_PP*eta_NO3_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_PAO/(K_O2_PAO+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NO3/(K_NO3_PAO+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_PO4/(K_PS+S_PO4)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>mu_PAO*eta_NO3_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NO3/(K_NO3_PAO+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_PAO/(K_O2_PAO+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * KI_IS_PAO/(S_IS+KI_IS_PAO)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K_h*eta_fe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2/(K_O2+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_NO3/(K_NO3+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>q_fe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_O2_H/(K_O2_H+S_O2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*K_NO3_H/(K_NO3_H+S_NO3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*S_F/(K_fe+S_F)*X_H</t>
-    </r>
+      <t>3-</t>
+    </r>
+  </si>
+  <si>
+    <t>X_CaCO3</t>
+  </si>
+  <si>
+    <t>X_struv</t>
+  </si>
+  <si>
+    <t>X_newb</t>
+  </si>
+  <si>
+    <t>X_ACP</t>
+  </si>
+  <si>
+    <t>X_MgCO3</t>
+  </si>
+  <si>
+    <t>X_AlPO4</t>
+  </si>
+  <si>
+    <t>X_FePO4</t>
+  </si>
+  <si>
+    <t>MgNH4PO4 6H2O</t>
+  </si>
+  <si>
+    <t>MgHPO4 3H2O</t>
+  </si>
+  <si>
+    <t>Ca3(PO4)2</t>
+  </si>
+  <si>
+    <t>molar stoichiometry</t>
+  </si>
+  <si>
+    <t>mole-to-mass conversion factor</t>
+  </si>
+  <si>
+    <t>CaCO3 precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>struvite precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>newberyite precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>ACP precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>MgCO3 precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>AlPO4 precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>FePO4 precipitation/dissolution</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
+  </si>
+  <si>
+    <t>MgCO3</t>
+  </si>
+  <si>
+    <t>AlPO4</t>
+  </si>
+  <si>
+    <t>FePO4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1877,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1914,13 +1926,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1930,11 +1940,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2272,19 +2294,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0B15A-AC83-4EBC-A6B6-CED6023B9B26}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="9.140625" style="2"/>
-    <col min="23" max="23" width="164.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="79.28515625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="61.7109375" style="4" customWidth="1"/>
+    <col min="24" max="25" width="79.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -2348,11 +2370,11 @@
       <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>193</v>
+      <c r="Y1" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,14 +2402,14 @@
       <c r="O2">
         <v>-1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>199</v>
+      <c r="Y2" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2415,17 +2437,17 @@
       <c r="O3">
         <v>-1</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2450,17 +2472,17 @@
       <c r="O4">
         <v>-1</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y4" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2485,17 +2507,17 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y5" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2520,14 +2542,14 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>201</v>
+      <c r="Y6" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -2558,14 +2580,14 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>210</v>
+      <c r="X7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
@@ -2596,14 +2618,14 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>211</v>
+      <c r="X8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2628,14 +2650,14 @@
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>215</v>
+      <c r="X9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2663,13 +2685,13 @@
       <c r="P10">
         <v>-1</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="X10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y10" s="6" t="s">
+      <c r="X10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2677,19 +2699,24 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -2698,39 +2725,49 @@
       <c r="M11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="7">
         <v>1</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="T11" s="7"/>
+      <c r="W11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>202</v>
+      <c r="X11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -2739,139 +2776,165 @@
       <c r="M12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="R12" s="1">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7">
         <v>1</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="T12" s="7"/>
+      <c r="W12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="X12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10">
+        <v>1</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="W13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="Y12" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="Y14" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10">
         <v>1</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="X13" s="9" t="s">
+      <c r="R15" s="10"/>
+      <c r="S15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="Y13" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="S14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W14" t="s">
-        <v>52</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>213</v>
+      <c r="Y15" s="14" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2890,39 +2953,49 @@
       <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q16">
-        <v>-1</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="W16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X16" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>205</v>
+      <c r="X16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2931,17 +3004,23 @@
       <c r="M17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="W17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>206</v>
+      <c r="X17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2963,14 +3042,14 @@
       <c r="S18">
         <v>-1</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>207</v>
+      <c r="X18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -2998,14 +3077,14 @@
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X19" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>208</v>
+      <c r="X19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -3033,13 +3112,13 @@
       <c r="T20">
         <v>-1</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X20" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y20" s="6" t="s">
+      <c r="X20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3059,11 +3138,11 @@
       <c r="V21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -3081,11 +3160,11 @@
       <c r="V22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,6 +3172,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4592AAF9-B2E1-421A-B561-417BA0A852F0}">
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M2" t="s">
+        <v>253</v>
+      </c>
+      <c r="N2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>-2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13">
+        <v>24.305</v>
+      </c>
+      <c r="C13">
+        <v>40.078000000000003</v>
+      </c>
+      <c r="D13">
+        <v>26.981538</v>
+      </c>
+      <c r="E13">
+        <v>55.844999999999999</v>
+      </c>
+      <c r="F13">
+        <v>12.0107</v>
+      </c>
+      <c r="G13">
+        <v>14.0067</v>
+      </c>
+      <c r="H13">
+        <v>30.973761</v>
+      </c>
+      <c r="I13">
+        <v>100.09</v>
+      </c>
+      <c r="J13">
+        <v>245.41</v>
+      </c>
+      <c r="K13">
+        <v>174.33</v>
+      </c>
+      <c r="L13">
+        <v>310.18</v>
+      </c>
+      <c r="M13">
+        <v>84.313999999999993</v>
+      </c>
+      <c r="N13">
+        <v>121.95</v>
+      </c>
+      <c r="O13">
+        <v>150.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q5:Q11"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC72312-3A75-4C71-9443-EB29A8D9ADC8}">
   <dimension ref="A1:AH26"/>
   <sheetViews>
@@ -4028,7 +4417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D088DA-B80B-40DF-8E9B-A3333285BC27}">
   <dimension ref="A1:AA20"/>
   <sheetViews>

--- a/qsdsan/data/_masm2d.xlsx
+++ b/qsdsan/data/_masm2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\QSDsan\qsdsan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49E428-BB99-46EF-9412-F526DC0B1D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BDBBFA-0A3D-45CA-9785-345DAA0D9116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2235" windowWidth="20730" windowHeight="12315" activeTab="3" xr2:uid="{028F6E0F-965C-4F8B-87F9-99B413BFCEEA}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{028F6E0F-965C-4F8B-87F9-99B413BFCEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="mASM2d" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="782">
   <si>
     <t>S_I</t>
   </si>
@@ -3318,38 +3318,38 @@
     <t>Ksp (mass based, e.g., mg/L) - GPS-X</t>
   </si>
   <si>
+    <t>k*[X_MeOH][S_PO4]* [X_MeOH]/([X_MeOH]]+K_X_MeOH)</t>
+  </si>
+  <si>
+    <t>mass-based stoichiometry</t>
+  </si>
+  <si>
+    <t>Precipitation/dissolution rate (mg/L precipitate /d); precipitate mass include the H2O in crystal</t>
+  </si>
+  <si>
+    <t>CaCO3_precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>struvite_precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>newberyite_precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>ACP _precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>MgCO3_precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>AlPO4_precipitation_dissolution</t>
+  </si>
+  <si>
+    <t>FePO4_precipitation_dissolution</t>
+  </si>
+  <si>
     <t>k*([A]^a*[B]^b - Ksp)* [X_AB]/([X_AB]+K_AB)          if [X_AB] &gt; 0
-k*([A]^a*[B]^b)                                                                 if [X_AB] = 0</t>
-  </si>
-  <si>
-    <t>k*[X_MeOH][S_PO4]* [X_MeOH]/([X_MeOH]]+K_X_MeOH)</t>
-  </si>
-  <si>
-    <t>mass-based stoichiometry</t>
-  </si>
-  <si>
-    <t>Precipitation/dissolution rate (mg/L precipitate /d); precipitate mass include the H2O in crystal</t>
-  </si>
-  <si>
-    <t>CaCO3_precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>struvite_precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>newberyite_precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>ACP _precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>MgCO3_precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>AlPO4_precipitation_dissolution</t>
-  </si>
-  <si>
-    <t>FePO4_precipitation_dissolution</t>
+k*([A]^a*[B]^b)                                                                          if [X_AB] = 0</t>
   </si>
 </sst>
 </file>
@@ -3875,25 +3875,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0B15A-AC83-4EBC-A6B6-CED6023B9B26}">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:B29"/>
+      <selection pane="bottomRight" activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="30" width="9.140625" style="1"/>
-    <col min="31" max="32" width="9.140625" style="2"/>
-    <col min="33" max="33" width="61.7109375" style="4" customWidth="1"/>
-    <col min="34" max="35" width="79.28515625" style="4" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="61.7109375" style="4" customWidth="1"/>
+    <col min="24" max="25" width="79.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -3948,50 +3947,20 @@
       <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4016,17 +3985,17 @@
       <c r="O2">
         <v>-1</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4051,17 +4020,17 @@
       <c r="O3">
         <v>-1</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4086,17 +4055,17 @@
       <c r="O4">
         <v>-1</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4121,17 +4090,17 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4156,17 +4125,17 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4194,17 +4163,17 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4232,17 +4201,17 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4264,17 +4233,17 @@
       <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="AG9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AH9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AI9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4299,17 +4268,17 @@
       <c r="P10">
         <v>-1</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AI10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4350,17 +4319,17 @@
         <v>1</v>
       </c>
       <c r="T11" s="7"/>
-      <c r="AG11" s="5" t="s">
+      <c r="W11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="X11" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4401,17 +4370,17 @@
         <v>48</v>
       </c>
       <c r="T12" s="7"/>
-      <c r="AG12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AH12" s="5" t="s">
+      <c r="X12" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="AI12" s="5" t="s">
+      <c r="Y12" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4454,17 +4423,17 @@
         <v>48</v>
       </c>
       <c r="T13" s="7"/>
-      <c r="AG13" s="5" t="s">
+      <c r="W13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AH13" s="5" t="s">
+      <c r="X13" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AI13" s="5" t="s">
+      <c r="Y13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4494,17 +4463,17 @@
         <v>51</v>
       </c>
       <c r="T14" s="7"/>
-      <c r="AG14" s="5" t="s">
+      <c r="W14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4537,17 +4506,17 @@
         <v>51</v>
       </c>
       <c r="T15" s="7"/>
-      <c r="AG15" s="5" t="s">
+      <c r="W15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AI15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4576,17 +4545,17 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="AG16" s="5" t="s">
+      <c r="W16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AI16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4623,17 +4592,17 @@
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="AG17" s="5" t="s">
+      <c r="W17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="5" t="s">
+      <c r="X17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AI17" s="5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4652,17 +4621,17 @@
       <c r="S18">
         <v>-1</v>
       </c>
-      <c r="AG18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AI18" s="4" t="s">
+      <c r="Y18" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4687,17 +4656,17 @@
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="AG19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AI19" s="4" t="s">
+      <c r="Y19" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4722,17 +4691,17 @@
       <c r="T20">
         <v>-1</v>
       </c>
-      <c r="AG20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AI20" s="4" t="s">
+      <c r="Y20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
@@ -4742,29 +4711,19 @@
       <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="2">
+      <c r="U21" s="2">
         <v>-3.45</v>
       </c>
-      <c r="AF21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG21" s="6" t="s">
+      <c r="V21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-    </row>
-    <row r="22" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
@@ -4774,58 +4733,38 @@
       <c r="K22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22" s="2">
+      <c r="U22" s="2">
         <v>3.45</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG22" s="6" t="s">
+      <c r="V22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12562,8 +12501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4592AAF9-B2E1-421A-B561-417BA0A852F0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13184,7 +13123,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -13193,7 +13132,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13229,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
@@ -13327,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="13">
-        <f t="shared" ref="C33:H33" si="8">C8*C$13/$L13</f>
+        <f t="shared" ref="C33:G33" si="8">C8*C$13/$L13</f>
         <v>-0.38762653942871883</v>
       </c>
       <c r="D33" s="13">
@@ -13431,7 +13370,7 @@
         <v>-0.25398738007380073</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -13579,7 +13518,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -13593,7 +13532,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -13610,7 +13549,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -13624,7 +13563,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C5">
         <v>-3</v>
@@ -13638,7 +13577,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -13652,7 +13591,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -13666,7 +13605,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E8">
         <v>-1</v>

--- a/qsdsan/data/_masm2d.xlsx
+++ b/qsdsan/data/_masm2d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\QSDsan\qsdsan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAD6490-D753-415F-9E31-1A2E70CDEDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E62910-7698-4307-B447-3D6B4C90CED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{028F6E0F-965C-4F8B-87F9-99B413BFCEEA}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="827">
   <si>
     <t>S_I</t>
   </si>
@@ -2747,6 +2747,114 @@
   <si>
     <t>qsdsan (decay=0)</t>
   </si>
+  <si>
+    <t>S_ALK</t>
+  </si>
+  <si>
+    <t>K_h*S_O2/(K_O2+S_O2)*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+  </si>
+  <si>
+    <t>K_h*eta_NO3*K_O2/(K_O2+S_O2)*S_NO3/(K_NO3+S_NO3)*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+  </si>
+  <si>
+    <t>K_h*eta_fe*K_O2/(K_O2+S_O2)*K_NO3/(K_NO3+S_NO3)*(X_S/X_H)/(K_X+X_S/X_H)*X_H</t>
+  </si>
+  <si>
+    <t>mu_H*S_O2/(K_O2_H+S_O2)*S_F/(K_F+S_F)*S_F/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*S_ALK/(K_ALK_H+S_ALK)*X_H</t>
+  </si>
+  <si>
+    <t>mu_H*S_O2/(K_O2_H+S_O2)*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*S_ALK/(K_ALK_H+S_ALK)*X_H</t>
+  </si>
+  <si>
+    <t>(1-Y_H)/(COD_deN*Y_H)</t>
+  </si>
+  <si>
+    <t>(Y_H-1)/(COD_deN*Y_H)</t>
+  </si>
+  <si>
+    <t>mu_H*eta_NO3_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_F/(K_F+S_F)*S_F/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*S_ALK/(K_ALK_H+S_ALK)*X_H</t>
+  </si>
+  <si>
+    <t>mu_H*eta_NO3_H*K_O2_H/(K_O2_H+S_O2)*S_NO3/(K_NO3_H+S_NO3)*S_A/(K_A_H+S_A)*S_A/(S_F+S_A)*S_NH4/(K_NH4_H+S_NH4)*S_PO4/(K_P_H+S_PO4)*S_ALK/(K_ALK_H+S_ALK)*X_H</t>
+  </si>
+  <si>
+    <t>q_fe*K_O2_H/(K_O2_H+S_O2)*K_NO3_H/(K_NO3_H+S_NO3)*S_F/(K_fe+S_F)*S_ALK/(K_ALK_H+S_ALK)*X_H</t>
+  </si>
+  <si>
+    <t>b_H*X_H</t>
+  </si>
+  <si>
+    <t>PAO_storage_PHA</t>
+  </si>
+  <si>
+    <t>q_PHA*S_A/(K_A_PAO+S_A)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PP/X_PAO)/(K_PP+X_PP/X_PAO)*X_PAO</t>
+  </si>
+  <si>
+    <t>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</t>
+  </si>
+  <si>
+    <t>Y_PHA/COD_deN</t>
+  </si>
+  <si>
+    <t>(-Y_PHA)/COD_deN</t>
+  </si>
+  <si>
+    <t>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO*eta_NO3_PAO*K_O2_PAO/S_O2*S_NO3/(K_NO3_PAO+S_NO3)</t>
+  </si>
+  <si>
+    <t>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</t>
+  </si>
+  <si>
+    <t>PAO_anox_growth</t>
+  </si>
+  <si>
+    <t>(1-Y_PAO)/(COD_deN*Y_PAO)</t>
+  </si>
+  <si>
+    <t>(Y_PAO-1)/(COD_deN*Y_PAO)</t>
+  </si>
+  <si>
+    <t>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO* eta_NO3_PAO*K_O2_PAO/S_O2*S_NO3/(K_NO3_PAO + S_NO3)</t>
+  </si>
+  <si>
+    <t>b_PAO*X_PAO*S_ALK/(K_ALK_PAO+S_ALK)</t>
+  </si>
+  <si>
+    <t>b_PP*X_PP*S_ALK/(K_ALK_PAO+S_ALK)</t>
+  </si>
+  <si>
+    <t>b_PHA*X_PHA*S_ALK/(K_ALK_PAO+S_ALK)</t>
+  </si>
+  <si>
+    <t>mu_AUT*S_O2/(K_O2_AUT+S_O2)*S_NH4/(K_NH4_AUT+S_NH4)*S_PO4/(K_P_AUT+S_PO4)*S_ALK/(K_ALK_AUT+S_ALK)*X_AUT</t>
+  </si>
+  <si>
+    <t>b_AUT*X_AUT</t>
+  </si>
+  <si>
+    <t>qsdsan (original ASM2d)</t>
+  </si>
+  <si>
+    <t>i_COD</t>
+  </si>
+  <si>
+    <t>i_C</t>
+  </si>
+  <si>
+    <t>i_N</t>
+  </si>
+  <si>
+    <t>i_P</t>
+  </si>
+  <si>
+    <t>S_Na</t>
+  </si>
+  <si>
+    <t>S_Cl</t>
+  </si>
+  <si>
+    <t>ACP_precipitation_dissolution</t>
+  </si>
 </sst>
 </file>
 
@@ -2754,7 +2862,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2874,6 +2982,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2883,19 +2998,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3246,13 +3384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE0B15A-AC83-4EBC-A6B6-CED6023B9B26}">
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AE84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,11 +3402,12 @@
     <col min="24" max="24" width="23.140625" style="4" customWidth="1"/>
     <col min="25" max="25" width="21.28515625" style="4" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="7"/>
-    <col min="27" max="27" width="9.140625" style="20" customWidth="1"/>
-    <col min="29" max="29" width="8" style="20" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="16" customWidth="1"/>
+    <col min="29" max="29" width="8" style="16" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>4</v>
       </c>
@@ -3338,17 +3477,20 @@
       <c r="Z1" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="15" t="s">
         <v>789</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="15" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3388,19 +3530,26 @@
       <c r="Z2" s="7">
         <v>2.2727272727272698</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="16">
         <f>Z2/X2-1</f>
         <v>-1.2212453270876722E-15</v>
       </c>
       <c r="AB2" s="7">
         <v>2.2727272727272698</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="16">
         <f>AB2/Y2-1</f>
         <v>-1.2212453270876722E-15</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="7">
+        <v>2.2727272727272698</v>
+      </c>
+      <c r="AE2" s="16">
+        <f>AD2/W2-1</f>
+        <v>-1.2212453270876722E-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3440,19 +3589,26 @@
       <c r="Z3" s="7">
         <v>0.18181818181818099</v>
       </c>
-      <c r="AA3" s="20">
-        <f t="shared" ref="AA3:AA66" si="0">Z3/X3-1</f>
+      <c r="AA3" s="16">
+        <f t="shared" ref="AA3:AA20" si="0">Z3/X3-1</f>
         <v>-4.4408920985006262E-15</v>
       </c>
       <c r="AB3" s="7">
         <v>0.18181818181818099</v>
       </c>
-      <c r="AC3" s="20">
-        <f t="shared" ref="AC3:AC66" si="1">AB3/Y3-1</f>
+      <c r="AC3" s="16">
+        <f t="shared" ref="AC3:AC20" si="1">AB3/Y3-1</f>
         <v>-4.4408920985006262E-15</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="7">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="AE3" s="16">
+        <f t="shared" ref="AE3:AE66" si="2">AD3/W3-1</f>
+        <v>-4.4408920985006262E-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3492,19 +3648,26 @@
       <c r="Z4" s="7">
         <v>6.0606060606060601E-2</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4" s="7">
         <v>6.0606060606060601E-2</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="7">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="AE4" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3544,19 +3707,26 @@
       <c r="Z5" s="7">
         <v>0.47147571900047103</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="16">
         <f t="shared" si="0"/>
         <v>-8.8817841970012523E-16</v>
       </c>
       <c r="AB5" s="7">
         <v>0.47147571900047103</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="16">
         <f t="shared" si="1"/>
         <v>-8.8817841970012523E-16</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="7">
+        <v>0.47147571900047103</v>
+      </c>
+      <c r="AE5" s="16">
+        <f t="shared" si="2"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3596,19 +3766,26 @@
       <c r="Z6" s="7">
         <v>0.47147571900047103</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="16">
         <f t="shared" si="0"/>
         <v>-8.8817841970012523E-16</v>
       </c>
       <c r="AB6" s="7">
         <v>0.47147571900047103</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="16">
         <f t="shared" si="1"/>
         <v>-8.8817841970012523E-16</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="7">
+        <v>0.47147571900047103</v>
+      </c>
+      <c r="AE6" s="16">
+        <f t="shared" si="2"/>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3651,19 +3828,26 @@
       <c r="Z7" s="7">
         <v>5.0290743360050197E-2</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="16">
         <f t="shared" si="0"/>
         <v>-1.8873791418627661E-15</v>
       </c>
       <c r="AB7" s="7">
         <v>5.0290743360050197E-2</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="16">
         <f t="shared" si="1"/>
         <v>-1.8873791418627661E-15</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7">
+        <v>5.0290743360050301E-2</v>
+      </c>
+      <c r="AE7" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3706,19 +3890,26 @@
       <c r="Z8" s="7">
         <v>5.0290743360050197E-2</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="16">
         <f t="shared" si="0"/>
         <v>-1.8873791418627661E-15</v>
       </c>
       <c r="AB8" s="7">
         <v>5.0290743360050197E-2</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="16">
         <f t="shared" si="1"/>
         <v>-1.8873791418627661E-15</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="7">
+        <v>5.0290743360050301E-2</v>
+      </c>
+      <c r="AE8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3755,19 +3946,26 @@
       <c r="Z9" s="7">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="16">
         <f t="shared" si="0"/>
         <v>-1.2212453270876722E-15</v>
       </c>
       <c r="AB9" s="7">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="16">
         <f t="shared" si="1"/>
         <v>-1.2212453270876722E-15</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="7">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="AE9" s="16">
+        <f t="shared" si="2"/>
+        <v>-1.2212453270876722E-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3807,19 +4005,26 @@
       <c r="Z10" s="7">
         <v>0.35555555555555501</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="16">
         <f t="shared" si="0"/>
         <v>-1.6653345369377348E-15</v>
       </c>
       <c r="AB10" s="7">
         <v>0.4</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AC10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AE10" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3875,19 +4080,26 @@
       <c r="Z11" s="7">
         <v>0.59405940594059403</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB11" s="7">
         <v>0.59405940594059403</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="7">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="AE11" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3943,19 +4155,26 @@
       <c r="Z12" s="7">
         <v>1.06358292079207</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA12" s="16">
         <f t="shared" si="0"/>
         <v>-8.7707618945387367E-15</v>
       </c>
       <c r="AB12" s="7">
         <v>1.06358292079207</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC12" s="16">
         <f t="shared" si="1"/>
         <v>-8.7707618945387367E-15</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="7">
+        <v>1.06358292079207</v>
+      </c>
+      <c r="AE12" s="16">
+        <f t="shared" si="2"/>
+        <v>-8.7707618945387367E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3999,8 +4218,8 @@
       </c>
       <c r="T13" s="7"/>
       <c r="W13" s="5">
-        <f>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</f>
-        <v>1.0635829207920793</v>
+        <f>q_PP*S_O2/(K_O2_PAO+S_O2)*S_PO4/(K_PS+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO*eta_NO3_PAO*K_O2_PAO/S_O2*S_NO3/(K_NO3_PAO+S_NO3)</f>
+        <v>8.5086633663366343E-2</v>
       </c>
       <c r="X13" s="5">
         <f>q_PP*eta_NO3_PAO*K_O2_PAO/(K_O2_PAO+S_O2)*S_NO3/(K_NO3_PAO+S_NO3)*S_PO4/(K_PS+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*(K_MAX-X_PP/X_PAO)/(K_IPP+K_MAX-X_PP/X_PAO)*X_PAO</f>
@@ -4013,19 +4232,26 @@
       <c r="Z13" s="7">
         <v>8.5086633663366301E-2</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AA13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB13" s="7">
         <v>8.5086633663366301E-2</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="7">
+        <v>8.5086633663366301E-2</v>
+      </c>
+      <c r="AE13" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4070,19 +4296,26 @@
       <c r="Z14" s="7">
         <v>0.77801273762454004</v>
       </c>
-      <c r="AA14" s="20">
+      <c r="AA14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB14" s="7">
         <v>0.77801273762454004</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="7">
+        <v>0.77801273762454004</v>
+      </c>
+      <c r="AE14" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4116,8 +4349,8 @@
       </c>
       <c r="T15" s="7"/>
       <c r="W15" s="5">
-        <f>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO</f>
-        <v>0.77801273762454026</v>
+        <f>mu_PAO*S_O2/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO* eta_NO3_PAO*K_O2_PAO/S_O2*S_NO3/(K_NO3_PAO + S_NO3)</f>
+        <v>6.2241019009963226E-2</v>
       </c>
       <c r="X15" s="4">
         <f>mu_PAO*eta_NO3_PAO*S_NO3/(K_NO3_PAO+S_NO3)*K_O2_PAO/(K_O2_PAO+S_O2)*S_NH4/(K_NH4_PAO+S_NH4)*S_PO4/(K_P_PAO+S_PO4)*S_ALK/(K_ALK_PAO+S_ALK)*(X_PHA/X_PAO)/(K_PHA+X_PHA/X_PAO)*X_PAO * KI_IS_PAO/(S_IS+KI_IS_PAO)</f>
@@ -4130,19 +4363,26 @@
       <c r="Z15" s="7">
         <v>6.2241019009963199E-2</v>
       </c>
-      <c r="AA15" s="20">
+      <c r="AA15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB15" s="7">
         <v>6.2241019009963199E-2</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="7">
+        <v>6.2241019009963199E-2</v>
+      </c>
+      <c r="AE15" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4186,19 +4426,26 @@
       <c r="Z16" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AA16" s="20">
+      <c r="AA16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB16" s="7">
         <v>0.2</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AC16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AE16" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4250,19 +4497,26 @@
       <c r="Z17" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB17" s="7">
         <v>0.2</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AE17" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4296,19 +4550,26 @@
       <c r="Z18" s="7">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB18" s="7">
         <v>0.2</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AE18" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4348,19 +4609,26 @@
       <c r="Z19" s="7">
         <v>0.33003300330032997</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB19" s="7">
         <v>0.33003300330032997</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="7">
+        <v>0.33003300330032997</v>
+      </c>
+      <c r="AE19" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4400,19 +4668,26 @@
       <c r="Z20" s="7">
         <v>0.111</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB20" s="7">
         <v>0.15</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AD20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
@@ -4434,10 +4709,14 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="7"/>
-      <c r="AA21" s="20"/>
-      <c r="AC21" s="20"/>
-    </row>
-    <row r="22" spans="1:29" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
@@ -4459,10 +4738,14 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="7"/>
-      <c r="AA22" s="20"/>
-      <c r="AC22" s="20"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>4</v>
@@ -4519,7 +4802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>734</v>
       </c>
@@ -4578,13 +4861,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4592,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>736</v>
       </c>
@@ -4600,7 +4883,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>737</v>
       </c>
@@ -4608,7 +4891,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4616,7 +4899,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>738</v>
       </c>
@@ -4624,7 +4907,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>739</v>
       </c>
@@ -4632,7 +4915,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -5057,6 +5340,14 @@
   <mergeCells count="1">
     <mergeCell ref="A25:B25"/>
   </mergeCells>
+  <conditionalFormatting sqref="AA2:AA20 AC2:AC20 AE2:AE20">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.000000000001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.000000000001</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5065,7 +5356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E966825B-48FC-4C0D-B5AD-C2B6108375D7}">
   <dimension ref="A1:FF164"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
@@ -10987,10 +11278,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576 I1:I1048576 N1:N1048576 S1:S1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11003,7 +11294,7 @@
   <dimension ref="A2:AD49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12791,8 +13082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4592AAF9-B2E1-421A-B561-417BA0A852F0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12945,7 +13236,7 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="20" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12965,7 +13256,7 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -12980,7 +13271,7 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -12995,7 +13286,7 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -13010,7 +13301,7 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -13025,7 +13316,7 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="20"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -13040,7 +13331,7 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -13206,15 +13497,15 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -13356,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f>(H$13*1000)^ABS(H8)</f>
         <v>959373870.48512089</v>
       </c>
       <c r="L24">
@@ -13412,15 +13703,15 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="I29" t="s">
         <v>725</v>
       </c>
@@ -13457,15 +13748,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -13499,13 +13790,13 @@
         <f t="shared" si="6"/>
         <v>-0.12621230186218982</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -13539,13 +13830,13 @@
         <f t="shared" si="7"/>
         <v>-0.1776731543624161</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -13579,13 +13870,13 @@
         <f>H8*H$13/$L13</f>
         <v>-0.19971475272422465</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -13619,13 +13910,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -13659,15 +13950,15 @@
         <f t="shared" si="10"/>
         <v>-0.25398738007380073</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -13701,13 +13992,13 @@
         <f t="shared" si="11"/>
         <v>-0.20536905582813952</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I37" s="14"/>
@@ -13751,160 +14042,5038 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB623BC1-857F-4315-A6D9-202202A3EB9F}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>719</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>720</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
+      <c r="C3">
         <v>-1</v>
       </c>
       <c r="H3">
         <v>-1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-2</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-1</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-1</v>
       </c>
-      <c r="O8">
-        <v>1</v>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>791</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="U15" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="U16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>797</v>
+      </c>
+      <c r="I18" t="s">
+        <v>798</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>797</v>
+      </c>
+      <c r="I19" t="s">
+        <v>798</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>803</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>806</v>
+      </c>
+      <c r="I24" t="s">
+        <v>807</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>810</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>811</v>
+      </c>
+      <c r="I26" t="s">
+        <v>812</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="U27" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>-1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <v>-1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31">
+        <v>-1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>-3.45</v>
+      </c>
+      <c r="T32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>3.45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>791</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" t="s">
+        <v>15</v>
+      </c>
+      <c r="T37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1.7134014435948499</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>-4.5690705162529301</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>821</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.32</v>
+      </c>
+      <c r="I39">
+        <v>0.37534845056689597</v>
+      </c>
+      <c r="J39">
+        <v>0.32</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0.36669767399999997</v>
+      </c>
+      <c r="M39">
+        <v>0.32</v>
+      </c>
+      <c r="N39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="R39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>822</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.03</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.01</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0.02</v>
+      </c>
+      <c r="M40">
+        <v>0.04</v>
+      </c>
+      <c r="N40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>823</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.01</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.01</v>
+      </c>
+      <c r="M41">
+        <v>0.01</v>
+      </c>
+      <c r="N41">
+        <v>0.02</v>
+      </c>
+      <c r="O41">
+        <v>0.02</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0.02</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0.20537401111275899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>791</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>8.5749676940321297E-3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>8.5749676940321297E-3</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>8.5749676940321297E-3</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>-0.6</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H47">
+        <v>-1.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>-1.6538308016997901E-2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>-0.6</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>-0.02</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>-1.6</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.25188709114465502</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E49">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F49">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G49">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H49">
+        <v>-1.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0.16362894825511201</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E50">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F50">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G50">
+        <v>-0.02</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>-1.6</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0.43205434741676502</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.03</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.01</v>
+      </c>
+      <c r="H51">
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>-0.167765874476033</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.01</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2.1623344346220999E-2</v>
+      </c>
+      <c r="L52">
+        <v>0.1</v>
+      </c>
+      <c r="M52">
+        <v>0.9</v>
+      </c>
+      <c r="N52">
+        <v>-1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>803</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0.4</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.10998890848972501</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>-0.4</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>-0.2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0.19421329198430701</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>-0.2</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>7.0036126354738298E-2</v>
+      </c>
+      <c r="E55" s="10">
+        <v>-7.7755720034587393E-18</v>
+      </c>
+      <c r="F55">
+        <v>-7.0036126354738298E-2</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0.25426904407501</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>-0.2</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>-0.6</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>-0.02</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-4.8391669308861303E-2</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>-1.6</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>810</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E57">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F57">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G57">
+        <v>-0.02</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0.13177558696324801</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>-1.6</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.01</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2.1623344346220999E-2</v>
+      </c>
+      <c r="L58">
+        <v>0.1</v>
+      </c>
+      <c r="M58">
+        <v>0.9</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>-1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-0.19421329198430701</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>-1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>-0.18767422528344799</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <v>-18.037793817720502</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>-4.2366666666666601</v>
+      </c>
+      <c r="F61">
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="G61">
+        <v>-0.02</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>-7.1941980810023001</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0.01</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>2.1623344346220999E-2</v>
+      </c>
+      <c r="L62">
+        <v>0.1</v>
+      </c>
+      <c r="M62">
+        <v>0.9</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>-1</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0.58165522746817799</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>-3.45</v>
+      </c>
+      <c r="T63">
+        <v>4.8691652589428802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>-0.58165522746817799</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>3.45</v>
+      </c>
+      <c r="T64">
+        <v>-4.8691652589428802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O67" t="s">
+        <v>11</v>
+      </c>
+      <c r="P67" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>13</v>
+      </c>
+      <c r="R67" t="s">
+        <v>14</v>
+      </c>
+      <c r="S67" t="s">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s">
+        <v>165</v>
+      </c>
+      <c r="V67" t="s">
+        <v>179</v>
+      </c>
+      <c r="W67" t="s">
+        <v>180</v>
+      </c>
+      <c r="X67" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>824</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.01</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.01</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0.01</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>-0.6</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H71">
+        <v>-1.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>-0.6</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>-0.02</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>-1.6</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0.234557520907033</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E73">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F73">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G73">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H73">
+        <v>-1.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E74">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F74">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G74">
+        <v>-0.02</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>-1.6</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0.234557520907033</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0.03</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.01</v>
+      </c>
+      <c r="H75">
+        <v>-1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>-5.5348450566896301E-2</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.01</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>4.1330232599999898E-2</v>
+      </c>
+      <c r="L76">
+        <v>0.1</v>
+      </c>
+      <c r="M76">
+        <v>0.9</v>
+      </c>
+      <c r="N76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.4</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>-1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>4.2015117233563E-2</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>-0.4</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0.16662411774921301</v>
+      </c>
+      <c r="T77">
+        <v>0.103579930122144</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>-0.2</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>-0.2</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>-0.41656029437303399</v>
+      </c>
+      <c r="T78">
+        <v>-0.25894982530535998</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>7.0036126354738298E-2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>-7.0036126354738298E-2</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>-0.2</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>-0.41656029437303399</v>
+      </c>
+      <c r="T79">
+        <v>-0.25894982530535998</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>-0.6</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>-0.02</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.167333333333333</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>-1.6</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>810</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.21010837906421401</v>
+      </c>
+      <c r="E81">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F81">
+        <v>-0.21010837906421401</v>
+      </c>
+      <c r="G81">
+        <v>-0.02</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0.167333333333333</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>-1.6</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0.01</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>4.1330232599999898E-2</v>
+      </c>
+      <c r="L82">
+        <v>0.1</v>
+      </c>
+      <c r="M82">
+        <v>0.9</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>-1</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>-1</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0.41656029437303399</v>
+      </c>
+      <c r="T83">
+        <v>0.25894982530535998</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-4.2015117233563E-2</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85">
+        <v>-18.037793817720502</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>-4.2366666666666601</v>
+      </c>
+      <c r="F85">
+        <v>4.1666666666666599</v>
+      </c>
+      <c r="G85">
+        <v>-0.02</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0.01</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>4.1330232599999898E-2</v>
+      </c>
+      <c r="L86">
+        <v>0.1</v>
+      </c>
+      <c r="M86">
+        <v>0.9</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>-1</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>726</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>-0.120002717638372</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>-0.40043202457064803</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>727</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>-5.7075505102450401E-2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>-0.12621410139415901</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>-9.9039756082093297E-2</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>728</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>-0.17767301065855201</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>-0.13941937900457499</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>826</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>-0.199716863343471</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>-0.38763063593147301</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>730</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>-0.14245219352918001</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>-0.288268008003425</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>731</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>-0.25398134241974801</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>-0.63962036687623103</v>
+      </c>
+      <c r="AB92">
+        <v>1</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93" t="s">
+        <v>732</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>-0.20537401111275899</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>-0.70859036308401502</v>
+      </c>
+      <c r="AD93">
+        <v>1</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
